--- a/_critique-alto_2016-2017/_critique-alto_2016-2017.xlsx
+++ b/_critique-alto_2016-2017/_critique-alto_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obvil\Desktop\masters-2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obvil\Documents\obvil-svn\critique\_critique-alto_2016-2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="1738">
   <si>
     <t>Marabail, Paul (Commandant)</t>
   </si>
@@ -5314,6 +5314,12 @@
   </si>
   <si>
     <t>taux OCR</t>
+  </si>
+  <si>
+    <t>en cours stella</t>
+  </si>
+  <si>
+    <t>done eric</t>
   </si>
 </sst>
 </file>
@@ -5730,11 +5736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="L169" sqref="L169"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5790,7 +5795,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3">
         <v>461000</v>
@@ -5829,7 +5834,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>263000</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>475000</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>809000</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>830000</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>797000</v>
       </c>
@@ -6019,7 +6024,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>669000</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>784000</v>
       </c>
@@ -6096,6 +6101,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1736</v>
+      </c>
       <c r="B10" s="3">
         <v>734000</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>39000</v>
@@ -6210,7 +6218,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>454000</v>
@@ -6249,7 +6257,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>402000</v>
@@ -6288,7 +6296,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>414000</v>
       </c>
@@ -6326,7 +6334,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>78000</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>67000</v>
       </c>
@@ -6402,7 +6410,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>10000</v>
       </c>
@@ -6516,7 +6524,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>310000</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>937000</v>
       </c>
@@ -6592,7 +6600,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>1024000</v>
       </c>
@@ -6630,7 +6638,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>953000</v>
       </c>
@@ -6668,7 +6676,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>235000</v>
       </c>
@@ -6706,7 +6714,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3">
         <v>443000</v>
@@ -6745,7 +6753,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>557000</v>
       </c>
@@ -6783,7 +6791,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="3">
         <v>460000</v>
@@ -6822,7 +6830,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>252000</v>
       </c>
@@ -6898,7 +6906,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>569000</v>
       </c>
@@ -6974,7 +6982,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>656000</v>
       </c>
@@ -7012,7 +7020,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>605000</v>
       </c>
@@ -7050,7 +7058,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>528000</v>
       </c>
@@ -7088,7 +7096,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>624000</v>
       </c>
@@ -7164,7 +7172,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>380000</v>
@@ -7203,7 +7211,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>724000</v>
       </c>
@@ -7241,7 +7249,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>686000</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>58000</v>
       </c>
@@ -7393,7 +7401,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>419000</v>
       </c>
@@ -7431,7 +7439,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>66000</v>
       </c>
@@ -7507,7 +7515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="3">
         <v>329000</v>
@@ -7546,7 +7554,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>670000</v>
       </c>
@@ -7584,7 +7592,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>448000</v>
       </c>
@@ -7622,7 +7630,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>764000</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>672000</v>
       </c>
@@ -7698,7 +7706,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>834000</v>
@@ -7737,7 +7745,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>746000</v>
       </c>
@@ -7775,7 +7783,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>537000</v>
       </c>
@@ -7927,7 +7935,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>681000</v>
       </c>
@@ -8003,7 +8011,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>285000</v>
       </c>
@@ -8041,7 +8049,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>477000</v>
       </c>
@@ -8079,7 +8087,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>427000</v>
       </c>
@@ -8117,7 +8125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>302000</v>
       </c>
@@ -8155,7 +8163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>252000</v>
       </c>
@@ -8193,7 +8201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>296000</v>
       </c>
@@ -8231,7 +8239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>317000</v>
       </c>
@@ -8269,7 +8277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>294000</v>
       </c>
@@ -8307,7 +8315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>369000</v>
       </c>
@@ -8345,7 +8353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>420000</v>
       </c>
@@ -8383,7 +8391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>327000</v>
       </c>
@@ -8421,7 +8429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3">
         <v>346000</v>
@@ -8460,7 +8468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3">
         <v>340000</v>
@@ -8499,7 +8507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3">
         <v>369000</v>
@@ -8538,7 +8546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3">
         <v>360000</v>
@@ -8577,7 +8585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3">
         <v>460000</v>
@@ -8616,7 +8624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3">
         <v>428000</v>
@@ -8655,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3">
         <v>355000</v>
@@ -8694,7 +8702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3">
         <v>403000</v>
@@ -8733,7 +8741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3">
         <v>496000</v>
@@ -8772,7 +8780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>296000</v>
       </c>
@@ -8810,7 +8818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>375000</v>
       </c>
@@ -8848,7 +8856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>336000</v>
       </c>
@@ -8924,7 +8932,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>777000</v>
       </c>
@@ -8962,7 +8970,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>805000</v>
       </c>
@@ -9000,7 +9008,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>801000</v>
       </c>
@@ -9038,7 +9046,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>68000</v>
       </c>
@@ -9114,7 +9122,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>128000</v>
       </c>
@@ -9228,7 +9236,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="7" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3">
         <v>389000</v>
@@ -9306,7 +9314,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3">
         <v>726000</v>
@@ -9345,7 +9353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3">
         <v>834000</v>
@@ -9384,7 +9392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>173000</v>
       </c>
@@ -9422,7 +9430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>18000</v>
       </c>
@@ -9460,7 +9468,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>523000</v>
       </c>
@@ -9498,7 +9506,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>626000</v>
       </c>
@@ -9536,7 +9544,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>19000</v>
       </c>
@@ -9574,7 +9582,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="3">
         <v>368000</v>
@@ -9651,7 +9659,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>380000</v>
       </c>
@@ -9689,7 +9697,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>1576000</v>
       </c>
@@ -9727,7 +9735,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>265000</v>
       </c>
@@ -9765,7 +9773,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <v>373000</v>
       </c>
@@ -9803,7 +9811,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3">
         <v>888000</v>
@@ -9919,7 +9927,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>108000</v>
       </c>
@@ -9957,7 +9965,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="3">
         <v>486000</v>
@@ -9996,7 +10004,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>252000</v>
       </c>
@@ -10034,7 +10042,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3">
         <v>303000</v>
@@ -10073,7 +10081,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>430000</v>
       </c>
@@ -10225,7 +10233,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>834000</v>
       </c>
@@ -10263,7 +10271,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>709000</v>
       </c>
@@ -10340,7 +10348,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>437000</v>
       </c>
@@ -10530,7 +10538,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <v>407000</v>
       </c>
@@ -10568,7 +10576,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>39000</v>
       </c>
@@ -10606,7 +10614,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>400000</v>
       </c>
@@ -10644,7 +10652,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>635000</v>
       </c>
@@ -10682,7 +10690,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3">
         <v>298000</v>
@@ -10760,7 +10768,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3">
         <v>807000</v>
@@ -10799,7 +10807,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>304000</v>
       </c>
@@ -10837,7 +10845,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3">
         <v>72000</v>
@@ -10876,7 +10884,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>577000</v>
       </c>
@@ -10914,7 +10922,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3">
         <v>41000</v>
@@ -10953,7 +10961,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3">
         <v>703000</v>
@@ -11069,7 +11077,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="3">
         <v>332000</v>
@@ -11108,7 +11116,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>89000</v>
       </c>
@@ -11260,7 +11268,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>748000</v>
       </c>
@@ -11298,7 +11306,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>24000</v>
       </c>
@@ -11336,7 +11344,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <v>1117000</v>
       </c>
@@ -11374,7 +11382,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3">
         <v>1046000</v>
@@ -11452,7 +11460,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3">
         <v>859000</v>
@@ -11491,7 +11499,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3">
         <v>887000</v>
@@ -11530,7 +11538,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3">
         <v>313000</v>
@@ -11569,7 +11577,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3">
         <v>488000</v>
@@ -11608,7 +11616,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <v>357000</v>
       </c>
@@ -11646,7 +11654,10 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>1737</v>
+      </c>
       <c r="B155" s="3">
         <v>12000</v>
       </c>
@@ -11684,7 +11695,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>59000</v>
       </c>
@@ -11799,7 +11810,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3">
         <v>33000</v>
@@ -11838,7 +11849,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="160" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3">
         <v>35000</v>
@@ -11877,7 +11888,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>196000</v>
       </c>
@@ -11915,7 +11926,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3">
         <v>33000</v>
@@ -11954,7 +11965,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3">
         <v>521000</v>
@@ -11993,7 +12004,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="7" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3">
         <v>246000</v>
@@ -12032,7 +12043,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>525000</v>
       </c>
@@ -12223,7 +12234,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>30000</v>
       </c>
@@ -12261,7 +12272,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
         <v>602000</v>
@@ -12300,7 +12311,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
         <v>687000</v>
@@ -12339,7 +12350,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>399000</v>
       </c>
@@ -12415,7 +12426,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>691000</v>
       </c>
@@ -12453,7 +12464,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B176" s="3">
         <v>294000</v>
       </c>
@@ -12491,7 +12502,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>851000</v>
       </c>
@@ -12529,7 +12540,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B178" s="3">
         <v>290000</v>
       </c>
@@ -12567,7 +12578,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>553000</v>
       </c>
@@ -12605,7 +12616,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>464000</v>
       </c>
@@ -12681,7 +12692,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3">
         <v>543000</v>
@@ -12759,7 +12770,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3">
         <v>397000</v>
@@ -12798,7 +12809,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
         <v>360000</v>
@@ -12837,7 +12848,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>198000</v>
       </c>
@@ -12875,7 +12886,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <v>781000</v>
       </c>
@@ -12913,7 +12924,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>673000</v>
       </c>
@@ -12951,7 +12962,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>684000</v>
       </c>
@@ -12989,7 +13000,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>697000</v>
       </c>
@@ -13027,7 +13038,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>1071000</v>
       </c>
@@ -13065,7 +13076,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>536000</v>
       </c>
@@ -13179,7 +13190,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B195" s="3">
         <v>26000</v>
       </c>
@@ -13255,7 +13266,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3">
         <v>346000</v>
@@ -13409,7 +13420,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="201" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3">
         <v>530000</v>
@@ -13487,7 +13498,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3">
         <v>558000</v>
@@ -13526,7 +13537,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>506000</v>
       </c>
@@ -13564,7 +13575,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>1030000</v>
       </c>
@@ -13602,7 +13613,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>780000</v>
       </c>
@@ -13640,7 +13651,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
         <v>453000</v>
@@ -13679,7 +13690,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>39000</v>
       </c>
@@ -13755,7 +13766,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3">
         <v>383000</v>
@@ -13794,7 +13805,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>396000</v>
       </c>
@@ -13832,7 +13843,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>280000</v>
       </c>
@@ -13870,7 +13881,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <v>543000</v>
       </c>
@@ -13908,7 +13919,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3">
         <v>458000</v>
@@ -13947,7 +13958,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="215" spans="1:13" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3">
         <v>457000</v>
@@ -13986,7 +13997,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>498000</v>
       </c>
@@ -14024,7 +14035,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>462000</v>
       </c>
@@ -14062,7 +14073,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>487000</v>
       </c>
@@ -14176,7 +14187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
         <v>715000</v>
       </c>
@@ -14214,7 +14225,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
         <v>732000</v>
       </c>
@@ -14252,7 +14263,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
         <v>689000</v>
       </c>
@@ -14290,7 +14301,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
         <v>556000</v>
       </c>
@@ -14328,7 +14339,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
         <v>686000</v>
       </c>
@@ -14366,7 +14377,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>555000</v>
       </c>
@@ -14404,7 +14415,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
         <v>631000</v>
       </c>
@@ -14556,7 +14567,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B231" s="3">
         <v>318000</v>
       </c>
@@ -14594,7 +14605,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B232" s="3">
         <v>314000</v>
       </c>
@@ -14676,7 +14687,7 @@
         <v>924223</v>
       </c>
     </row>
-    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B234" s="3">
         <v>62000</v>
       </c>
@@ -14720,7 +14731,7 @@
         <v>624657</v>
       </c>
     </row>
-    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1">
         <v>565000</v>
@@ -14759,7 +14770,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1">
         <v>620000</v>
@@ -14804,7 +14815,7 @@
         <v>613988</v>
       </c>
     </row>
-    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B237" s="3">
         <v>185000</v>
       </c>
@@ -14848,7 +14859,7 @@
         <v>624042</v>
       </c>
     </row>
-    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1">
         <v>637000</v>
@@ -14893,7 +14904,7 @@
         <v>614840</v>
       </c>
     </row>
-    <row r="239" spans="1:40" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3">
         <v>232000</v>
@@ -14938,7 +14949,7 @@
         <v>640453</v>
       </c>
     </row>
-    <row r="240" spans="1:40" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3">
         <v>706000</v>
@@ -14983,7 +14994,7 @@
         <v>462884</v>
       </c>
     </row>
-    <row r="241" spans="1:40" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3">
         <v>801000</v>
@@ -15028,7 +15039,7 @@
         <v>550872</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="B242" s="3">
         <v>839000</v>
       </c>
@@ -15072,7 +15083,7 @@
         <v>634683</v>
       </c>
     </row>
-    <row r="243" spans="1:40" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="3">
         <v>595000</v>
       </c>
@@ -15116,7 +15127,7 @@
         <v>575328</v>
       </c>
     </row>
-    <row r="244" spans="1:40" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="3">
         <v>647000</v>
       </c>
@@ -15204,7 +15215,7 @@
         <v>661364</v>
       </c>
     </row>
-    <row r="246" spans="1:40" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
         <v>840000</v>
       </c>
@@ -15242,7 +15253,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="247" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B247" s="3">
         <v>504000</v>
       </c>
@@ -15318,7 +15329,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="249" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B249" s="3">
         <v>557000</v>
       </c>
@@ -15356,7 +15367,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="250" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B250" s="3">
         <v>631000</v>
       </c>
@@ -15394,7 +15405,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="251" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B251" s="3">
         <v>571000</v>
       </c>
@@ -15432,7 +15443,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B252" s="3">
         <v>554000</v>
       </c>
@@ -15470,7 +15481,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="B253" s="3">
         <v>545000</v>
       </c>
@@ -15660,7 +15671,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B258" s="3">
         <v>248000</v>
       </c>
@@ -15698,7 +15709,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B259" s="3">
         <v>59000</v>
       </c>
@@ -15774,7 +15785,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="3">
         <v>474000</v>
@@ -15851,7 +15862,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B263" s="3">
         <v>680000</v>
       </c>
@@ -15927,7 +15938,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="3">
         <v>418000</v>
       </c>
@@ -15965,7 +15976,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="3">
         <v>300000</v>
       </c>
@@ -16003,7 +16014,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B267" s="3">
         <v>432000</v>
       </c>
@@ -16041,7 +16052,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="3">
         <v>285000</v>
       </c>
@@ -16079,7 +16090,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B269" s="3">
         <v>85000</v>
       </c>
@@ -16117,7 +16128,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3">
         <v>451000</v>
       </c>
@@ -16155,7 +16166,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="3">
         <v>281000</v>
@@ -16346,7 +16357,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
         <v>276000</v>
       </c>
@@ -16384,7 +16395,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B277" s="3">
         <v>706000</v>
       </c>
@@ -16422,7 +16433,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B278" s="3">
         <v>584000</v>
       </c>
@@ -16460,7 +16471,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B279" s="3">
         <v>617000</v>
       </c>
@@ -16498,7 +16509,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B280" s="3">
         <v>35000</v>
       </c>
@@ -16536,7 +16547,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="3">
         <v>381000</v>
       </c>
@@ -16574,7 +16585,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="3">
         <v>324000</v>
@@ -16689,7 +16700,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="3">
         <v>497000</v>
       </c>
@@ -16727,7 +16738,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B286" s="3">
         <v>463000</v>
       </c>
@@ -16765,7 +16776,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B287" s="3">
         <v>481000</v>
       </c>
@@ -17069,7 +17080,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B295" s="3">
         <v>224000</v>
       </c>
@@ -17107,7 +17118,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B296" s="3">
         <v>553000</v>
       </c>
@@ -17373,7 +17384,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="3">
         <v>384000</v>
@@ -17412,7 +17423,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D304" s="3" t="s">
         <v>917</v>
       </c>
@@ -17444,7 +17455,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -17479,7 +17490,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="3" t="s">
@@ -17513,7 +17524,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="D307" s="1" t="s">
@@ -17547,7 +17558,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D308" s="1" t="s">
         <v>739</v>
       </c>
@@ -17579,7 +17590,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="D309" s="3" t="s">
         <v>648</v>
@@ -17612,7 +17623,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="D310" s="3" t="s">
         <v>648</v>
@@ -17645,7 +17656,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="D311" s="3" t="s">
         <v>648</v>
@@ -17678,7 +17689,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="D312" s="3" t="s">
         <v>648</v>
@@ -17711,7 +17722,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="D313" s="3" t="s">
         <v>648</v>
@@ -17744,7 +17755,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="D314" s="3" t="s">
         <v>648</v>
@@ -17777,7 +17788,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="D315" s="3" t="s">
         <v>648</v>
@@ -17810,7 +17821,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="D316" s="3" t="s">
         <v>648</v>
@@ -17843,7 +17854,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="D317" s="3" t="s">
         <v>648</v>
@@ -17876,7 +17887,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="D318" s="1" t="s">
@@ -17910,7 +17921,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="D319" s="1" t="s">
@@ -17944,7 +17955,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="D320" s="1" t="s">
@@ -17978,7 +17989,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D321" s="3" t="s">
         <v>605</v>
       </c>
@@ -18010,7 +18021,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="D322" s="1" t="s">
         <v>457</v>
@@ -18043,7 +18054,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
       <c r="D323" s="1" t="s">
         <v>409</v>
@@ -18076,7 +18087,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="D324" s="1" t="s">
@@ -18110,7 +18121,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="D325" s="1" t="s">
@@ -18144,7 +18155,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="D326" s="1" t="s">
@@ -18178,7 +18189,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="D327" s="1" t="s">
@@ -18212,7 +18223,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="D328" s="1" t="s">
@@ -18246,7 +18257,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="D329" s="1" t="s">
         <v>281</v>
@@ -18279,7 +18290,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="D330" s="1" t="s">
@@ -18313,7 +18324,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="D331" s="1" t="s">
@@ -18347,7 +18358,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="D332" s="1" t="s">
@@ -18381,7 +18392,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="D333" s="1" t="s">
@@ -18415,7 +18426,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="D334" s="1" t="s">
         <v>169</v>
@@ -18448,7 +18459,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="D335" s="1" t="s">
         <v>149</v>
@@ -18481,7 +18492,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="D336" s="1" t="s">
@@ -18515,7 +18526,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="D337" s="1" t="s">
@@ -18549,7 +18560,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="D338" s="1" t="s">
@@ -18583,7 +18594,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="D339" s="3" t="s">
@@ -18617,7 +18628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="D340" s="3" t="s">
@@ -18651,7 +18662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="D341" s="1" t="s">
@@ -18789,16 +18800,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:L341">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1a"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="99.5"/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="B2:M206">
       <sortCondition ref="C2:C208"/>
       <sortCondition ref="J2:J208"/>

--- a/_critique-alto_2016-2017/_critique-alto_2016-2017.xlsx
+++ b/_critique-alto_2016-2017/_critique-alto_2016-2017.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1738">
   <si>
     <t>Marabail, Paul (Commandant)</t>
   </si>
@@ -5738,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14112,6 +14112,9 @@
       </c>
     </row>
     <row r="219" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>1737</v>
+      </c>
       <c r="B219" s="3">
         <v>502000</v>
       </c>
